--- a/timeseries/Basic_processing/EV/region_coefficients.xlsx
+++ b/timeseries/Basic_processing/EV/region_coefficients.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">SE03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE00</t>
   </si>
 </sst>
 </file>
@@ -275,14 +278,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.67"/>
   </cols>
   <sheetData>
@@ -357,7 +361,32 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2030</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>500000</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/timeseries/Basic_processing/EV/region_coefficients.xlsx
+++ b/timeseries/Basic_processing/EV/region_coefficients.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">DE00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR00</t>
   </si>
 </sst>
 </file>
@@ -278,10 +281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -388,6 +391,34 @@
         <v>500000</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>2030</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>300000</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/timeseries/Basic_processing/EV/region_coefficients.xlsx
+++ b/timeseries/Basic_processing/EV/region_coefficients.xlsx
@@ -56,11 +56,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,12 +83,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -146,15 +141,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,31 +279,31 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -317,12 +312,12 @@
       <c r="C2" s="3" t="n">
         <v>2040</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -331,12 +326,12 @@
       <c r="C3" s="3" t="n">
         <v>2040</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -345,12 +340,12 @@
       <c r="C4" s="3" t="n">
         <v>2030</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>25000</v>
+      <c r="D4" s="1" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -359,12 +354,12 @@
       <c r="C5" s="3" t="n">
         <v>2030</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>25000</v>
+      <c r="D5" s="1" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -373,12 +368,12 @@
       <c r="C6" s="3" t="n">
         <v>2030</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>250000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -387,12 +382,12 @@
       <c r="C7" s="3" t="n">
         <v>2040</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>500000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -401,12 +396,12 @@
       <c r="C8" s="3" t="n">
         <v>2030</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>150000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -415,7 +410,7 @@
       <c r="C9" s="3" t="n">
         <v>2040</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>300000</v>
       </c>
     </row>

--- a/timeseries/Basic_processing/EV/region_coefficients.xlsx
+++ b/timeseries/Basic_processing/EV/region_coefficients.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">coefficient</t>
   </si>
   <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">FI00</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">FR00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOS0</t>
   </si>
 </sst>
 </file>
@@ -276,10 +282,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -301,13 +307,16 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>2040</v>
@@ -318,10 +327,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>2040</v>
@@ -332,10 +341,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>2030</v>
@@ -346,10 +355,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>2030</v>
@@ -360,10 +369,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>2030</v>
@@ -374,10 +383,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>2040</v>
@@ -388,10 +397,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>2030</v>
@@ -402,16 +411,44 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>2040</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>300000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>2030</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/timeseries/Basic_processing/EV/region_coefficients.xlsx
+++ b/timeseries/Basic_processing/EV/region_coefficients.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">NOS0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK00</t>
   </si>
 </sst>
 </file>
@@ -282,10 +285,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -424,7 +427,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -438,7 +441,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -449,6 +452,34 @@
       </c>
       <c r="D11" s="1" t="n">
         <v>50000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>2030</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
